--- a/Hospital-Example/7 Plan/Prisminstance672/672Prismintance672_travel_distance.xlsx
+++ b/Hospital-Example/7 Plan/Prisminstance672/672Prismintance672_travel_distance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grist\Documents\GitHub\Scheduling-Multi-robot-Missions-with-JointTasks\Hospital-Example\7 Plan\Prisminstance672\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30D09D-E651-4254-B1A8-0B1D3F7F2A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC38344-1A5B-444C-95E1-C9E9DB3888AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21480" yWindow="375" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -474,7 +474,8 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>832</v>
+        <f>SUM(B2:B6)</f>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
